--- a/data/income_statement/3digits/total/239_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/239_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>239-Manufacture of abrasive products and non-metallic mineral products n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>239-Manufacture of abrasive products and non-metallic mineral products n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1729963.98423</v>
@@ -959,34 +865,39 @@
         <v>2581047.47835</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2395769.36994</v>
+        <v>2397688.60827</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>2980570.79857</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3007900.204189999</v>
+        <v>3011353.42505</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3762837.67754</v>
+        <v>3769247.1515</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4526454.48113</v>
+        <v>4527368.240329999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4541891.37304</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6975309.951449999</v>
+        <v>6982764.75752</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7109983.592519999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7115388.984009999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9326842.289000001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1575123.69404</v>
@@ -998,34 +909,39 @@
         <v>2361978.82828</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2119388.36557</v>
+        <v>2121148.84712</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>2644468.72778</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2570936.30015</v>
+        <v>2574330.50703</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3303002.676</v>
+        <v>3309288.73433</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4032853.46631</v>
+        <v>4033767.22551</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3846359.54407</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5662913.96154</v>
+        <v>5670332.21836</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5454024.743220001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5458813.003580001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7297651.043</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>135151.99529</v>
@@ -1037,34 +953,39 @@
         <v>194075.29998</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>256996.48857</v>
+        <v>257131.04015</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>313486.04998</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>381770.99406</v>
+        <v>381830.00804</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>382165.88012</v>
+        <v>382209.22645</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>421114.63091</v>
+        <v>421114.6309099999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>570485.4735600001</v>
+        <v>570485.47356</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1125170.4835</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1528717.77545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1529153.2806</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1881679.006</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>19688.2949</v>
@@ -1076,7 +997,7 @@
         <v>24993.35009</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19384.5158</v>
+        <v>19408.721</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>22616.02081</v>
@@ -1085,7 +1006,7 @@
         <v>55192.90998</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>77669.12142</v>
+        <v>77749.19072</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>72486.38390999999</v>
@@ -1094,16 +1015,21 @@
         <v>125046.35541</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>187225.50641</v>
+        <v>187262.05566</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>127241.07385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>127422.69983</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>147512.24</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>188557.21431</v>
@@ -1115,13 +1041,13 @@
         <v>171890.45515</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>138179.28932</v>
+        <v>138180.51565</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>162255.77907</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>189584.36748</v>
+        <v>189639.37398</v>
       </c>
       <c r="I9" s="47" t="n">
         <v>209157.86643</v>
@@ -1133,16 +1059,21 @@
         <v>215617.08275</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>222590.16701</v>
+        <v>222592.56701</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>272304.2948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>272743.2948</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>319909.423</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4968.95523</v>
@@ -1175,13 +1106,18 @@
         <v>31108.12532</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>53221.07632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>53410.07631999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>51461.627</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>161337.60316</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>185563.62918</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>229909.869</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>22250.65592</v>
@@ -1232,13 +1173,13 @@
         <v>27652.25559</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>28207.08089</v>
+        <v>28208.30722</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>28267.70205</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>32825.91088</v>
+        <v>32880.91738</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>33287.85811</v>
@@ -1250,16 +1191,21 @@
         <v>22414.6409</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>33956.75963</v>
+        <v>33959.15962999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>33519.5893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>33769.5893</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>38537.927</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1541406.76992</v>
@@ -1271,34 +1217,39 @@
         <v>2409157.0232</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2257590.08062</v>
+        <v>2259508.09262</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>2818315.0195</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2818315.83671</v>
+        <v>2821714.05107</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3553679.81111</v>
+        <v>3560089.28507</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4353378.74537</v>
+        <v>4354292.50457</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4326274.29029</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6752719.78444</v>
+        <v>6760172.19051</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6837679.297719999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6842645.68921</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9006932.866</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1261405.03743</v>
@@ -1310,37 +1261,42 @@
         <v>2106190.49639</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1885639.26204</v>
+        <v>1887044.71039</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>2429110.40569</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2482643.10297</v>
+        <v>2488505.04245</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2839495.198640001</v>
+        <v>2848149.85624</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3644517.576940001</v>
+        <v>3645346.35303</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3507338.6515</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5521912.16688</v>
+        <v>5529293.040689999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5760911.14006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5765879.512979999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7501856.06</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>601242.6296</v>
+        <v>601242.6295999999</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>784967.8868199999</v>
@@ -1349,46 +1305,51 @@
         <v>1038415.52259</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1183033.48608</v>
+        <v>1184389.01092</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>1377166.6912</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1559014.96197</v>
+        <v>1564876.90145</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1959369.08772</v>
+        <v>1967865.03384</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1960490.51788</v>
+        <v>1961319.29397</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2421009.66089</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3187007.22811</v>
+        <v>3189067.46492</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3468867.74163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3471920.16243</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4194547.563</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>88229.28628999997</v>
+        <v>88229.28628999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>93839.29167999999</v>
+        <v>93839.29168000001</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>147771.07637</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>148058.81558</v>
+        <v>148108.73909</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>240603.69506</v>
@@ -1397,7 +1358,7 @@
         <v>193604.92738</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>238873.75511</v>
+        <v>238922.36114</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>270579.72212</v>
@@ -1406,43 +1367,48 @@
         <v>379732.88703</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>447968.60672</v>
+        <v>453289.24372</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>481998.93306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>483914.88518</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1045531.578</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>571788.79896</v>
+        <v>571788.7989599999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>410204.5896899999</v>
+        <v>410204.58969</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>917093.5601400001</v>
+        <v>917093.56014</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>550144.85378</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>809393.6378200001</v>
+        <v>809393.6378199999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>725259.47562</v>
+        <v>725259.4756199999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>638761.4706700001</v>
+        <v>638871.57612</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>1401814.90602</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>695477.56472</v>
+        <v>695477.5647199999</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>1865799.21292</v>
@@ -1450,11 +1416,16 @@
       <c r="M17" s="48" t="n">
         <v>1764636.95977</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>2230413.204</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>144.32258</v>
@@ -1466,7 +1437,7 @@
         <v>2910.33729</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4402.106600000001</v>
+        <v>4402.1066</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>1946.38161</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>45407.5056</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>31363.715</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>280001.73249</v>
@@ -1505,34 +1481,39 @@
         <v>302966.52681</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>371950.81858</v>
+        <v>372463.38223</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>389204.6138100001</v>
+        <v>389204.61381</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>335672.73374</v>
+        <v>333209.00862</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>714184.6124700001</v>
+        <v>711939.42883</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>708861.16843</v>
+        <v>708946.15154</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>818935.63879</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1230807.61756</v>
+        <v>1230879.14982</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1076768.15766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1076766.17623</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1505076.806</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>138659.63175</v>
@@ -1544,40 +1525,45 @@
         <v>191708.04913</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>229991.53906</v>
+        <v>230243.35927</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>268286.90495</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>306865.20575</v>
+        <v>307862.87716</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>360357.79718</v>
+        <v>362606.63624</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>411117.18054</v>
+        <v>411124.35865</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>463271.76764</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>688963.44227</v>
+        <v>690545.34687</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>792519.3746100002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>794142.5344000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>831216.932</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2560.72641</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3030.476729999999</v>
+        <v>3030.47673</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>6035.86598</v>
@@ -1586,7 +1572,7 @@
         <v>4113.18448</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4577.39594</v>
+        <v>4577.395939999999</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>4951.20259</v>
@@ -1604,13 +1590,18 @@
         <v>6201.69667</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>8813.26368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8931.187699999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6653.428</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>70616.90739000001</v>
@@ -1619,19 +1610,19 @@
         <v>91424.65725</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>97894.0922</v>
+        <v>97894.09220000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>109586.88987</v>
+        <v>109587.04987</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>118254.42279</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>137221.15266</v>
+        <v>137697.23074</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>161337.03052</v>
+        <v>162126.27669</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>193231.59235</v>
@@ -1640,16 +1631,21 @@
         <v>226576.09078</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>362315.7352000001</v>
+        <v>362317.49976</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>403186.6048499999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>403243.6809</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>443962.483</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>65481.99795</v>
@@ -1661,34 +1657,39 @@
         <v>87778.09095</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>116291.46471</v>
+        <v>116543.12492</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>145455.08622</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>164692.8505</v>
+        <v>165214.44383</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>192639.60467</v>
+        <v>194099.19756</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>209711.15021</v>
+        <v>209718.32832</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>226437.76667</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>320446.0104</v>
+        <v>322026.15044</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>380519.5060799999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>381967.6658</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>380601.021</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>141342.10074</v>
@@ -1700,55 +1701,60 @@
         <v>111258.47768</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>141959.27952</v>
+        <v>142220.02296</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>120917.70886</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>28807.52799</v>
+        <v>25346.13146</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>353826.81529</v>
+        <v>349332.79259</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>297743.98789</v>
+        <v>297821.79289</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>355663.87115</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>541844.1752899999</v>
+        <v>540333.80295</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>284248.78305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>282623.64183</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>673859.874</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>80596.26886</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>56651.18917999999</v>
+        <v>56651.18918000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>47154.41335</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>62507.62844000001</v>
+        <v>62517.47966</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>89747.57063000002</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>145548.96928</v>
+        <v>145589.36527</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>189442.12551</v>
+        <v>189547.59899</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>168795.52875</v>
@@ -1757,16 +1763,21 @@
         <v>270822.15188</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>769624.79798</v>
+        <v>770356.5716300001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>451505.3662400001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>451535.0606</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>685516.1360000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>20995.97671</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>9876.051240000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2937.543</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>7182.36454</v>
@@ -1853,10 +1874,10 @@
         <v>5442.86657</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4579.3002</v>
+        <v>4579.300200000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5393.94386</v>
+        <v>5401.70201</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>6329.825650000001</v>
@@ -1874,16 +1895,21 @@
         <v>18814.36485</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>20942.8279</v>
+        <v>21460.50093</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>25418.28665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>25428.23742</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>21407.858</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>60.23034</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>279.61005</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>380.92</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>839.51399</v>
@@ -1952,19 +1983,24 @@
         <v>1284.31535</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>712.8714100000001</v>
+        <v>726.9325699999999</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>1868.78554</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>540.225</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>96.99539999999999</v>
+        <v>96.9954</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>96.69156</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>1983.99853</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2380.442</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>43913.1664</v>
+        <v>43913.16640000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>31902.68245</v>
@@ -2012,13 +2053,13 @@
         <v>31376.34004</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>45196.38236</v>
+        <v>45198.47543</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>52956.97702999999</v>
+        <v>52956.97703</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>98968.64527999998</v>
+        <v>98971.98011</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>127681.4403</v>
@@ -2030,16 +2071,21 @@
         <v>226226.28103</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>644821.16324</v>
+        <v>645020.3035999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>360788.97154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>360781.57838</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>607142.927</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2941.574</v>
@@ -2048,7 +2094,7 @@
         <v>1046.62189</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>872.48532</v>
+        <v>872.4853200000001</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>786.05574</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1963.45479</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1991.576</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,32 +2164,37 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4566.447480000001</v>
+        <v>4566.44748</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4199.492029999999</v>
+        <v>4199.49203</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>6842.11526</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5735.76507</v>
+        <v>5735.765069999999</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>11760.39143</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>10565.44228</v>
+        <v>10602.50344</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>11913.24098</v>
+        <v>12018.71446</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>16568.49624</v>
@@ -2147,16 +2203,21 @@
         <v>19214.21759</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>83803.50124000001</v>
+        <v>83804.40033999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>49326.20789999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>49353.34464999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>48734.645</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>40799.59613000001</v>
@@ -2165,16 +2226,16 @@
         <v>35862.67472</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>38709.89727</v>
+        <v>38709.89726999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>42138.42290999999</v>
+        <v>42145.69599</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>90894.98838</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>108579.01319</v>
+        <v>108579.10079</v>
       </c>
       <c r="I36" s="47" t="n">
         <v>167131.95578</v>
@@ -2186,16 +2247,21 @@
         <v>220358.64393</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>800962.6986100001</v>
+        <v>801587.5448500001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>456238.60885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>456286.35715</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>760232.672</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>183.63008</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>5091.1098</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3910.135</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>6154.642900000001</v>
@@ -2243,7 +2314,7 @@
         <v>11377.36475</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5685.14862</v>
+        <v>5685.148619999999</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>5922.504369999999</v>
@@ -2252,7 +2323,7 @@
         <v>6870.64476</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6319.1982</v>
+        <v>6319.198199999999</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>9725.798070000001</v>
@@ -2264,16 +2335,21 @@
         <v>7188.42477</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>12714.44237</v>
+        <v>12739.57638</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>13797.16838</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>14329.936</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0.18681</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>123.387</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>30934.49267</v>
@@ -2324,10 +2405,10 @@
         <v>27746.44473</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>32334.80818</v>
+        <v>32342.08126</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>73625.65255</v>
+        <v>73625.65255000001</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>94273.03525000002</v>
@@ -2342,28 +2423,33 @@
         <v>204635.97532</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>740174.3772700001</v>
+        <v>740774.0895000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>391479.39526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>391479.3952600001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>693447.1800000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1865.34649</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>640.56859</v>
+        <v>640.5685900000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>850.19681</v>
+        <v>850.1968099999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>842.6626799999999</v>
+        <v>842.66268</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>3333.27447</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1967.43574</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2934.896</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1661.48399</v>
@@ -2444,16 +2540,16 @@
         <v>1436.84633</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4729.3386</v>
+        <v>4729.338600000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1981.30586</v>
+        <v>1981.39346</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>4948.29825</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4671.42262</v>
+        <v>4671.422619999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>4043.70492</v>
@@ -2462,19 +2558,24 @@
         <v>39565.56684000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>43903.31285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>43951.06115</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>45487.138</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>87062.98698</v>
+        <v>87062.98697999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>37822.57131</v>
+        <v>37822.57130999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>52478.52517</v>
@@ -2486,28 +2587,33 @@
         <v>65108.5284</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>74384.45186</v>
+        <v>74509.98441</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>138863.34342</v>
+        <v>138865.30784</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>147710.42997</v>
+        <v>147742.20241</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>236113.1376199999</v>
+        <v>236113.13762</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>423110.92835</v>
+        <v>423258.391</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>348338.46819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>348419.61329</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>376712.639</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>84854.93893</v>
@@ -2525,28 +2631,33 @@
         <v>51007.09272</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>67855.57868999999</v>
+        <v>67981.11124000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>113760.43611</v>
+        <v>113762.40053</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>112972.67064</v>
+        <v>113004.44308</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>199157.88387</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>345766.79633</v>
+        <v>345914.25898</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>301045.00688</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>301126.15198</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>296659.478</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2208.04805</v>
@@ -2555,7 +2666,7 @@
         <v>2220.10416</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>7046.23588</v>
+        <v>7046.235880000001</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>6369.16912</v>
@@ -2570,7 +2681,7 @@
         <v>25102.90731</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>34737.75933</v>
+        <v>34737.75933000001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>36955.25375</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>47293.46131</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>80053.16099999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>94075.78649</v>
@@ -2597,34 +2713,39 @@
         <v>67224.46859</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>109107.2673</v>
+        <v>109370.58888</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>54661.76271</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-8606.967779999994</v>
+        <v>-12153.58847000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>237273.6416</v>
+        <v>232883.12796</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>127035.56748</v>
+        <v>127081.60004</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>170014.24148</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>87395.34631000001</v>
+        <v>85844.43872999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-68822.92775</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-70547.26800999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>222430.699</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>22198.9596</v>
@@ -2636,34 +2757,39 @@
         <v>10716.0452</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>15547.35821</v>
+        <v>15571.67237</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>13615.07972</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>56959.10771</v>
+        <v>56992.23866</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>14828.58069</v>
+        <v>14828.43494</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>32519.56559</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>36445.69262</v>
+        <v>36445.69261999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>61258.14109</v>
+        <v>61391.48725999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>66421.38639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>66488.48681000002</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>66538.99099999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>14118.47934</v>
@@ -2678,10 +2804,10 @@
         <v>1749.25582</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>696.7554600000001</v>
+        <v>696.75546</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>873.8461599999999</v>
+        <v>878.18331</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>52.35386999999999</v>
@@ -2696,13 +2822,18 @@
         <v>763.0465</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1837.95555</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1836.97057</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5039.959</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>8080.480259999999</v>
@@ -2714,16 +2845,16 @@
         <v>9219.18585</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>13798.10239</v>
+        <v>13822.41655</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>12918.32426</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>56085.26155</v>
+        <v>56114.05535</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>14776.22682</v>
+        <v>14776.08107</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>31116.99453</v>
@@ -2732,16 +2863,21 @@
         <v>29510.6955</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>60495.09459</v>
+        <v>60628.44076</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>64583.43084</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>64651.51624</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>61499.032</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>16249.20301</v>
@@ -2753,34 +2889,39 @@
         <v>48957.15215000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>33986.12459</v>
+        <v>33989.58254</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>12684.55295</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>43277.15027</v>
+        <v>43295.93266</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>105611.88061</v>
+        <v>105611.78554</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>95410.07376999999</v>
+        <v>95411.68539999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>76970.79013000001</v>
+        <v>76970.79012999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>96082.41018000001</v>
+        <v>96677.90826000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>111056.07855</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>111116.68777</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>79754.382</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>12376.71363</v>
@@ -2813,13 +2954,18 @@
         <v>35287.15838</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>44789.52159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>44849.96012999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>32598.421</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1487.74827</v>
@@ -2831,7 +2977,7 @@
         <v>1572.96179</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4092.843060000001</v>
+        <v>4092.84306</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>1780.5102</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>2037.83476</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3422.853</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2384.74111</v>
@@ -2870,34 +3021,39 @@
         <v>43367.95907</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6334.235019999999</v>
+        <v>6337.692970000001</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>7540.52133</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>16629.17293</v>
+        <v>16647.95532</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>68854.20216</v>
+        <v>68854.10709</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>59057.15723</v>
+        <v>59058.76886</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>47531.99564</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>58094.74476</v>
+        <v>58690.24284000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>64228.7222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>64228.89287999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>43733.108</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>100025.54308</v>
@@ -2909,34 +3065,39 @@
         <v>28983.36164</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>90668.50091999999</v>
+        <v>90952.67871000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>55592.28947999999</v>
+        <v>55592.28948000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5074.989660000004</v>
+        <v>1542.717529999997</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>146490.34168</v>
+        <v>142099.77736</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>64145.05929999999</v>
+        <v>64189.48023</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>129489.14397</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>52571.07722000001</v>
+        <v>50558.01773000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-113457.61991</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-115175.46897</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>209215.308</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>20645.38368</v>
@@ -2948,7 +3109,7 @@
         <v>26288.80815</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>27422.76944</v>
+        <v>27480.29659</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>29153.6813</v>
@@ -2957,61 +3118,69 @@
         <v>44746.43938</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>58975.53579</v>
+        <v>58974.44606</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>42688.01998</v>
+        <v>42698.18723999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>39443.92047</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>38847.09309</v>
+        <v>38917.05639</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>41571.71271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>38494.62166</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>60617.14</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>79380.15939999999</v>
+        <v>79380.1594</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>123888.67248</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2694.553489999998</v>
+        <v>2694.553489999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>63245.73147999999</v>
+        <v>63472.38211999999</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>26438.60818</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-39671.44972</v>
+        <v>-43203.72185</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>87514.80589</v>
+        <v>83125.33129999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>21457.03932</v>
+        <v>21491.29298999999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>90045.22349999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>13723.98413000001</v>
+        <v>11640.96133999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-155029.33262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-153670.09063</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>148598.168</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>154</v>
@@ -3041,31 +3213,34 @@
         <v>188</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G59" s="35" t="n">
         <v>239</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>351</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>374</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>